--- a/data-raw/_raw/vn/2019/rd_20190709-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190709-phen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Box Sync\1_Gina_Projects\proj_Marsden\_theme-2019data\_data\raw_entered\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Box Sync\1_Gina_Projects\proj_Marsden\_theme-2019data\_data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -55,9 +55,6 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
@@ -65,6 +62,18 @@
   </si>
   <si>
     <t>Collected by: Wyatt by himself</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V7</t>
   </si>
 </sst>
 </file>
@@ -468,8 +477,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -501,12 +510,12 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -580,8 +589,8 @@
         <v>35</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="11">
-        <v>8</v>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>8</v>
@@ -608,8 +617,8 @@
         <v>36</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="11">
-        <v>9</v>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="11">
         <v>9</v>
@@ -636,8 +645,8 @@
         <v>37</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="11">
-        <v>8</v>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>8</v>
@@ -668,8 +677,8 @@
         <v>31</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <v>8</v>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="18">
         <v>8</v>
@@ -696,8 +705,8 @@
         <v>36</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18">
-        <v>8</v>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <v>8</v>
@@ -724,8 +733,8 @@
         <v>33</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>8</v>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="22">
         <v>8</v>
@@ -756,8 +765,8 @@
         <v>37</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18">
-        <v>8</v>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H13" s="22">
         <v>8</v>
@@ -784,8 +793,8 @@
         <v>36</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <v>8</v>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H14" s="22">
         <v>8</v>
@@ -812,8 +821,8 @@
         <v>38</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <v>8</v>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="22">
         <v>8</v>
@@ -844,8 +853,8 @@
         <v>39</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18">
-        <v>8</v>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H16" s="22">
         <v>8</v>
@@ -872,8 +881,8 @@
         <v>38</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>8</v>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H17" s="22">
         <v>8</v>
@@ -900,8 +909,8 @@
         <v>35</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>8</v>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="22">
         <v>8</v>
@@ -932,8 +941,8 @@
         <v>33</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>8</v>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="22">
         <v>8</v>
@@ -960,8 +969,8 @@
         <v>36</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19">
-        <v>8</v>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="20">
         <v>8</v>
@@ -987,8 +996,8 @@
         <v>35</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <v>8</v>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="20">
         <v>8</v>
@@ -1018,8 +1027,8 @@
         <v>30</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="19">
-        <v>8</v>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="20">
         <v>8</v>
@@ -1045,8 +1054,8 @@
         <v>34</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19">
-        <v>8</v>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="20">
         <v>8</v>
@@ -1072,8 +1081,8 @@
         <v>31</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>8</v>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="20">
         <v>8</v>
@@ -1103,8 +1112,8 @@
         <v>32</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="19">
-        <v>7</v>
+      <c r="G25" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="20">
         <v>7</v>
@@ -1130,8 +1139,8 @@
         <v>38</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="19">
-        <v>8</v>
+      <c r="G26" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="20">
         <v>8</v>
@@ -1157,8 +1166,8 @@
         <v>39</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19">
-        <v>9</v>
+      <c r="G27" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="H27" s="20">
         <v>9</v>
@@ -1188,8 +1197,8 @@
         <v>41</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20">
-        <v>8</v>
+      <c r="G28" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="20">
         <v>8</v>
@@ -1209,8 +1218,8 @@
         <v>46</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20">
-        <v>9</v>
+      <c r="G29" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="20">
         <v>9</v>
@@ -1230,8 +1239,8 @@
         <v>43</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20">
-        <v>8</v>
+      <c r="G30" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="20">
         <v>8</v>
